--- a/Project3/Comparison.xlsx
+++ b/Project3/Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\1o Sem\IAJ\Projects\Project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F66EB34-0D6C-4E88-9AEB-339BEB363479}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC744DFC-0CEC-402D-ADB5-2342040484DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11652" yWindow="5820" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11736" yWindow="5352" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
-  <si>
-    <t>Avg. Processing Time</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
   <si>
     <t>Win Rate (%)</t>
   </si>
@@ -54,9 +51,6 @@
     <t>MCTS w/ Limited Biased Playout</t>
   </si>
   <si>
-    <t>MCTS w/ RAVE</t>
-  </si>
-  <si>
     <t>MCTS w/ Child Culling</t>
   </si>
   <si>
@@ -66,9 +60,6 @@
     <t>MCTS w/ Limited Biased Playout &amp; Child Culling</t>
   </si>
   <si>
-    <t>MCTS w/ RAVE &amp; Child Culling</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -84,13 +75,55 @@
     <t>Wins (Avg. Time Left)</t>
   </si>
   <si>
-    <t>1.068 + 0.86 + 1.01 + 0.89 + 0.63 + 0.85</t>
-  </si>
-  <si>
-    <t>2.27 + 2.21 + 3.46 + 2.17 + 2.72 + 1.91</t>
-  </si>
-  <si>
-    <t>18.09 + 15.60 + 18.54 + 14.77 + 13.05 + 4.38</t>
+    <t>MCTS w/ Biased Rave &amp; Child Culling</t>
+  </si>
+  <si>
+    <t>Avg. Processing Time (s)</t>
+  </si>
+  <si>
+    <t>2 (4)</t>
+  </si>
+  <si>
+    <t>MCTS w/Biased RAVE</t>
+  </si>
+  <si>
+    <t>1 (4)</t>
+  </si>
+  <si>
+    <t>2 (6)</t>
+  </si>
+  <si>
+    <t>2 (18)</t>
+  </si>
+  <si>
+    <t>2(14)</t>
+  </si>
+  <si>
+    <t>8 (17)</t>
+  </si>
+  <si>
+    <t>7 (22)</t>
+  </si>
+  <si>
+    <t>6 (24)</t>
+  </si>
+  <si>
+    <t>6 (14)</t>
+  </si>
+  <si>
+    <t>9 (24)</t>
+  </si>
+  <si>
+    <t>9 (12)</t>
+  </si>
+  <si>
+    <t>10 (25)</t>
+  </si>
+  <si>
+    <t>5 (19)</t>
+  </si>
+  <si>
+    <t>8(10)</t>
   </si>
 </sst>
 </file>
@@ -134,13 +167,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,13 +463,13 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="47.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
     <col min="3" max="3" width="12.5546875" customWidth="1"/>
     <col min="4" max="4" width="20.5546875" customWidth="1"/>
     <col min="5" max="5" width="23.88671875" customWidth="1"/>
@@ -444,48 +483,48 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>4.1599999999999996E-3</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>14.58</v>
@@ -499,13 +538,13 @@
       <c r="I2">
         <v>7</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0.441</v>
@@ -520,7 +559,7 @@
         <v>24.78</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -531,126 +570,576 @@
       <c r="I3">
         <v>6</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.76280000000000003</v>
       </c>
       <c r="C4">
         <v>500</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>2.1709999999999998</v>
+      </c>
+      <c r="E4">
+        <v>12.8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
       <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
         <v>4</v>
       </c>
-      <c r="I4">
-        <v>3</v>
+      <c r="J4" s="4">
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.71089999999999998</v>
+      </c>
+      <c r="C5">
+        <v>500</v>
+      </c>
+      <c r="D5">
+        <v>2.7490000000000001</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C6">
+        <v>500</v>
+      </c>
+      <c r="D6">
+        <v>2.5</v>
+      </c>
+      <c r="E6">
+        <v>17.89</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.52</v>
+      </c>
+      <c r="C7">
+        <v>500</v>
+      </c>
+      <c r="D7">
+        <v>3.43</v>
+      </c>
+      <c r="E7">
+        <v>24.59</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C8">
+        <v>500</v>
+      </c>
+      <c r="D8">
+        <v>2.8</v>
+      </c>
+      <c r="E8">
+        <v>14.17</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="C9">
+        <v>500</v>
+      </c>
+      <c r="D9">
+        <v>3.1280000000000001</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="C10">
+        <v>500</v>
+      </c>
+      <c r="D10">
+        <v>2.9980000000000002</v>
+      </c>
+      <c r="E10">
+        <v>22.05</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>1E-3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>8.08</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>0.23</v>
+      </c>
+      <c r="C16">
+        <v>500</v>
+      </c>
+      <c r="D16">
+        <v>3.4</v>
+      </c>
+      <c r="E16">
+        <v>11.07</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>0.31</v>
+      </c>
+      <c r="C17">
+        <v>500</v>
+      </c>
+      <c r="D17">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E17">
+        <v>10.78</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>0.4</v>
+      </c>
+      <c r="C18">
+        <v>500</v>
+      </c>
+      <c r="D18">
+        <v>3.4</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>0.25</v>
+      </c>
+      <c r="C19">
+        <v>500</v>
+      </c>
+      <c r="D19">
+        <v>5.45</v>
+      </c>
+      <c r="E19">
+        <v>12.4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>0.23</v>
+      </c>
+      <c r="C20">
+        <v>500</v>
+      </c>
+      <c r="D20">
+        <v>5.65</v>
+      </c>
+      <c r="E20">
+        <v>14.23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>0.4</v>
+      </c>
+      <c r="C21">
+        <v>500</v>
+      </c>
+      <c r="D21">
+        <v>5.83</v>
+      </c>
+      <c r="E21">
+        <v>15.3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C22">
+        <v>500</v>
+      </c>
+      <c r="D22">
+        <v>5.82</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>0.3</v>
+      </c>
+      <c r="C23">
+        <v>500</v>
+      </c>
+      <c r="D23">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="E23">
+        <v>13.1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>

--- a/Project3/Comparison.xlsx
+++ b/Project3/Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\1o Sem\IAJ\Projects\Project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC744DFC-0CEC-402D-ADB5-2342040484DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826B5081-4FCB-4FAB-B58E-5C12DCC6C46D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11736" yWindow="5352" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="46">
   <si>
     <t>Win Rate (%)</t>
   </si>
@@ -81,56 +81,95 @@
     <t>Avg. Processing Time (s)</t>
   </si>
   <si>
-    <t>2 (4)</t>
-  </si>
-  <si>
     <t>MCTS w/Biased RAVE</t>
   </si>
   <si>
-    <t>1 (4)</t>
-  </si>
-  <si>
-    <t>2 (6)</t>
-  </si>
-  <si>
-    <t>2 (18)</t>
-  </si>
-  <si>
-    <t>2(14)</t>
-  </si>
-  <si>
-    <t>8 (17)</t>
-  </si>
-  <si>
-    <t>7 (22)</t>
-  </si>
-  <si>
-    <t>6 (24)</t>
-  </si>
-  <si>
-    <t>6 (14)</t>
-  </si>
-  <si>
-    <t>9 (24)</t>
-  </si>
-  <si>
-    <t>9 (12)</t>
-  </si>
-  <si>
-    <t>10 (25)</t>
-  </si>
-  <si>
-    <t>5 (19)</t>
-  </si>
-  <si>
-    <t>8(10)</t>
+    <t>8 (47.5)</t>
+  </si>
+  <si>
+    <t>9 (27.6)</t>
+  </si>
+  <si>
+    <t>9 (22.5)</t>
+  </si>
+  <si>
+    <t>10 (35.3)</t>
+  </si>
+  <si>
+    <t>9 (29.5)</t>
+  </si>
+  <si>
+    <t>10 (62)</t>
+  </si>
+  <si>
+    <t>10 (35)</t>
+  </si>
+  <si>
+    <t>10 (26)</t>
+  </si>
+  <si>
+    <t>10 (47.4)</t>
+  </si>
+  <si>
+    <t>1 (2)</t>
+  </si>
+  <si>
+    <t>9 (22)</t>
+  </si>
+  <si>
+    <t>7 (14)</t>
+  </si>
+  <si>
+    <t>10 (10.4)</t>
+  </si>
+  <si>
+    <t>4 (2.5)</t>
+  </si>
+  <si>
+    <t>10 (33.6)</t>
+  </si>
+  <si>
+    <t>10 (30)</t>
+  </si>
+  <si>
+    <t>10 (22)</t>
+  </si>
+  <si>
+    <t>8 (14)</t>
+  </si>
+  <si>
+    <t>8 (12.3)</t>
+  </si>
+  <si>
+    <t>1 (12)</t>
+  </si>
+  <si>
+    <t>1 (16)</t>
+  </si>
+  <si>
+    <t>6 (14.3)</t>
+  </si>
+  <si>
+    <t>Normal World</t>
+  </si>
+  <si>
+    <t>Fear World</t>
+  </si>
+  <si>
+    <t>1 (30)</t>
+  </si>
+  <si>
+    <t>Improvement</t>
+  </si>
+  <si>
+    <t>Wins (Avg. Time Left (s))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +181,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -167,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -180,6 +235,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,14 +532,18 @@
     <col min="4" max="4" width="20.5546875" customWidth="1"/>
     <col min="5" max="5" width="23.88671875" customWidth="1"/>
     <col min="6" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
     <col min="10" max="10" width="14.33203125" customWidth="1"/>
     <col min="11" max="11" width="8.88671875" customWidth="1"/>
+    <col min="12" max="12" width="40.88671875" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
+    <col min="14" max="14" width="17" customWidth="1"/>
+    <col min="15" max="15" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
@@ -498,7 +560,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>14</v>
@@ -509,13 +571,22 @@
       <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>4.1599999999999996E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -527,36 +598,48 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>14.58</v>
+        <v>224.3</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J2" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>1E-3</v>
+      </c>
+      <c r="N2">
+        <v>2E-3</v>
+      </c>
+      <c r="O2" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.441</v>
+        <v>0.41</v>
       </c>
       <c r="C3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="D3">
-        <v>2.66</v>
+        <v>5.81</v>
       </c>
       <c r="E3">
-        <v>24.78</v>
+        <v>19.3</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -565,59 +648,83 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J3" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>0.41</v>
+      </c>
+      <c r="N3">
+        <v>0.23</v>
+      </c>
+      <c r="O3" s="6">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.76280000000000003</v>
+        <v>0.67</v>
       </c>
       <c r="C4">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="D4">
-        <v>2.1709999999999998</v>
+        <v>4.7450000000000001</v>
       </c>
       <c r="E4">
-        <v>12.8</v>
+        <v>24.82</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>20</v>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J4" s="4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4">
+        <v>0.67</v>
+      </c>
+      <c r="N4">
+        <v>0.63</v>
+      </c>
+      <c r="O4" s="6">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.71089999999999998</v>
+        <v>0.48</v>
       </c>
       <c r="C5">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="D5">
-        <v>2.7490000000000001</v>
+        <v>6.3019999999999996</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -626,33 +733,45 @@
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5" s="4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5">
+        <v>0.48</v>
+      </c>
+      <c r="N5">
+        <v>0.38</v>
+      </c>
+      <c r="O5" s="6">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6">
-        <v>1.1000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="C6">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="D6">
-        <v>2.5</v>
+        <v>5.3</v>
       </c>
       <c r="E6">
-        <v>17.89</v>
+        <v>22.3</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -661,91 +780,127 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J6" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6">
+        <v>0.16</v>
+      </c>
+      <c r="N6">
+        <v>0.1</v>
+      </c>
+      <c r="O6" s="7">
+        <v>-0.375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="C7">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="D7">
-        <v>3.43</v>
+        <v>5.2</v>
       </c>
       <c r="E7">
-        <v>24.59</v>
+        <v>21.34</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J7" s="4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7">
+        <v>0.51</v>
+      </c>
+      <c r="N7">
+        <v>0.38</v>
+      </c>
+      <c r="O7" s="6">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.57999999999999996</v>
+        <v>0.59</v>
       </c>
       <c r="C8">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="D8">
-        <v>2.8</v>
+        <v>8.81</v>
       </c>
       <c r="E8">
-        <v>14.17</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J8" s="4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8">
+        <v>0.59</v>
+      </c>
+      <c r="N8">
+        <v>0.41</v>
+      </c>
+      <c r="O8" s="6">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.59299999999999997</v>
+        <v>0.47</v>
       </c>
       <c r="C9">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="D9">
-        <v>3.1280000000000001</v>
+        <v>7.32</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -754,51 +909,75 @@
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9">
+        <v>0.47</v>
+      </c>
+      <c r="N9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O9" s="6">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.91900000000000004</v>
+        <v>0.24</v>
       </c>
       <c r="C10">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="D10">
-        <v>2.9980000000000002</v>
+        <v>7.04</v>
       </c>
       <c r="E10">
-        <v>22.05</v>
+        <v>18.3</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J10" s="4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10">
+        <v>0.24</v>
+      </c>
+      <c r="N10">
+        <v>0.17</v>
+      </c>
+      <c r="O10" s="6">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -810,10 +989,10 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
@@ -842,12 +1021,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B15">
-        <v>1E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -859,39 +1038,42 @@
         <v>11</v>
       </c>
       <c r="F15">
-        <v>8.08</v>
+        <v>8.3849999999999998</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>8</v>
       </c>
       <c r="J15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B16">
-        <v>0.23</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="C16">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="D16">
-        <v>3.4</v>
+        <v>5.1120000000000001</v>
       </c>
       <c r="E16">
-        <v>11.07</v>
+        <v>17.585000000000001</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -908,25 +1090,25 @@
         <v>6</v>
       </c>
       <c r="B17">
-        <v>0.31</v>
+        <v>0.85</v>
       </c>
       <c r="C17">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="D17">
-        <v>4.0999999999999996</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="E17">
-        <v>10.78</v>
+        <v>16.54</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -940,13 +1122,13 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>0.4</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="C18">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="D18">
-        <v>3.4</v>
+        <v>6.702</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -955,48 +1137,48 @@
         <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J18" s="4">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>0.25</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="C19">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="D19">
-        <v>5.45</v>
+        <v>4.8860000000000001</v>
       </c>
       <c r="E19">
-        <v>12.4</v>
+        <v>15.7</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19" s="4">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1004,31 +1186,31 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>0.23</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="C20">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="D20">
-        <v>5.65</v>
+        <v>6</v>
       </c>
       <c r="E20">
-        <v>14.23</v>
+        <v>15.135</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20" s="4">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1036,31 +1218,31 @@
         <v>9</v>
       </c>
       <c r="B21">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="C21">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="D21">
-        <v>5.83</v>
+        <v>6.61</v>
       </c>
       <c r="E21">
-        <v>15.3</v>
+        <v>14.12</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21" s="4">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1068,13 +1250,13 @@
         <v>10</v>
       </c>
       <c r="B22">
-        <v>0.28000000000000003</v>
+        <v>0.32</v>
       </c>
       <c r="C22">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="D22">
-        <v>5.82</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="E22">
         <v>5</v>
@@ -1083,7 +1265,7 @@
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1100,31 +1282,31 @@
         <v>16</v>
       </c>
       <c r="B23">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C23">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="D23">
-        <v>4.9400000000000004</v>
+        <v>5.68</v>
       </c>
       <c r="E23">
-        <v>13.1</v>
+        <v>10.62</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23" s="4">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1139,10 +1321,322 @@
       <c r="I25" s="2"/>
       <c r="J25" s="3"/>
     </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <v>389.4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="C28">
+        <v>800</v>
+      </c>
+      <c r="D28">
+        <v>5.234</v>
+      </c>
+      <c r="E28">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C29">
+        <v>800</v>
+      </c>
+      <c r="D29">
+        <v>4.7024999999999997</v>
+      </c>
+      <c r="E29">
+        <v>12.4</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="A30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>0.52</v>
+      </c>
+      <c r="C30">
+        <v>800</v>
+      </c>
+      <c r="D30">
+        <v>8.4</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="C31">
+        <v>800</v>
+      </c>
+      <c r="D31">
+        <v>4.8470000000000004</v>
+      </c>
+      <c r="E31">
+        <v>10.8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>0.42</v>
+      </c>
+      <c r="C32">
+        <v>800</v>
+      </c>
+      <c r="D32">
+        <v>5.76</v>
+      </c>
+      <c r="E32">
+        <v>18.05</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C33">
+        <v>800</v>
+      </c>
+      <c r="D33">
+        <v>6.23</v>
+      </c>
+      <c r="E33">
+        <v>13.57</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>0.37</v>
+      </c>
+      <c r="C34">
+        <v>800</v>
+      </c>
+      <c r="D34">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C35">
+        <v>800</v>
+      </c>
+      <c r="D35">
+        <v>6.03</v>
+      </c>
+      <c r="E35">
+        <v>11.35</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35" s="4">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project3/Comparison.xlsx
+++ b/Project3/Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\1o Sem\IAJ\Projects\Project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826B5081-4FCB-4FAB-B58E-5C12DCC6C46D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809E3DFC-9162-43AC-8FCE-1D39913D750C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,18 +138,12 @@
     <t>8 (14)</t>
   </si>
   <si>
-    <t>8 (12.3)</t>
-  </si>
-  <si>
     <t>1 (12)</t>
   </si>
   <si>
     <t>1 (16)</t>
   </si>
   <si>
-    <t>6 (14.3)</t>
-  </si>
-  <si>
     <t>Normal World</t>
   </si>
   <si>
@@ -163,6 +157,12 @@
   </si>
   <si>
     <t>Wins (Avg. Time Left (s))</t>
+  </si>
+  <si>
+    <t>6 (12.3)</t>
+  </si>
+  <si>
+    <t>5 (14.3)</t>
   </si>
 </sst>
 </file>
@@ -237,7 +237,7 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,14 +520,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="47.88671875" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
     <col min="3" max="3" width="12.5546875" customWidth="1"/>
     <col min="4" max="4" width="20.5546875" customWidth="1"/>
     <col min="5" max="5" width="23.88671875" customWidth="1"/>
@@ -560,7 +560,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>14</v>
@@ -572,13 +572,13 @@
         <v>0</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -733,16 +733,16 @@
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" s="4">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>7</v>
@@ -821,7 +821,7 @@
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -909,16 +909,16 @@
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J9" s="4">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>10</v>
@@ -953,7 +953,7 @@
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H10">
         <v>5</v>
